--- a/artfynd/A 4937-2019.xlsx
+++ b/artfynd/A 4937-2019.xlsx
@@ -930,7 +930,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>17277918</v>
+        <v>17278131</v>
       </c>
       <c r="B4" t="n">
         <v>77506</v>
@@ -974,10 +974,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>605300.6842285346</v>
+        <v>605143.547327519</v>
       </c>
       <c r="R4" t="n">
-        <v>6968700.746874274</v>
+        <v>6969730.796134469</v>
       </c>
       <c r="S4" t="n">
         <v>100</v>
@@ -1033,7 +1033,7 @@
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>Barrnaturskog</t>
+          <t>Löv/barrblandskog</t>
         </is>
       </c>
       <c r="AT4" t="inlineStr"/>
@@ -1055,10 +1055,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>17278083</v>
+        <v>17277918</v>
       </c>
       <c r="B5" t="n">
-        <v>77541</v>
+        <v>77506</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1071,21 +1071,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>185</v>
+        <v>6425</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Violettgrå tagellav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Bryoria nadvornikiana</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -1180,10 +1180,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>17278131</v>
+        <v>17278083</v>
       </c>
       <c r="B6" t="n">
-        <v>77506</v>
+        <v>77541</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1196,21 +1196,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6425</v>
+        <v>185</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Violettgrå tagellav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Bryoria nadvornikiana</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -1224,10 +1224,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>605143.547327519</v>
+        <v>605300.6842285346</v>
       </c>
       <c r="R6" t="n">
-        <v>6969730.796134469</v>
+        <v>6968700.746874274</v>
       </c>
       <c r="S6" t="n">
         <v>100</v>
@@ -1283,7 +1283,7 @@
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>Löv/barrblandskog</t>
+          <t>Barrnaturskog</t>
         </is>
       </c>
       <c r="AT6" t="inlineStr"/>
